--- a/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - LITERATURE.xlsx
+++ b/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - LITERATURE.xlsx
@@ -8,6 +8,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="YLxlu31dYFhKr38uXdURy5HfPS9msp2MGlV188sfL/w="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -147,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -158,6 +163,11 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,13 +184,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,11 +471,18 @@
         <v>10</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>67.0</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="3">
+        <v>44.0</v>
+      </c>
       <c r="H3" s="1"/>
+      <c r="I3" s="4">
+        <v>71.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -503,11 +526,18 @@
         <v>14</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>73.0</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="3">
+        <v>52.0</v>
+      </c>
       <c r="H7" s="1"/>
+      <c r="I7" s="4">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
@@ -527,11 +557,18 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>85.0</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="3">
+        <v>56.0</v>
+      </c>
       <c r="H9" s="1"/>
+      <c r="I9" s="4">
+        <v>59.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
@@ -1670,7 +1707,9 @@
         <v>25</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>42.0</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1720,7 +1759,9 @@
         <v>30</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>33.0</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
